--- a/biology/Botanique/Parc_d'Osseghem/Parc_d'Osseghem.xlsx
+++ b/biology/Botanique/Parc_d'Osseghem/Parc_d'Osseghem.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_d%27Osseghem</t>
+          <t>Parc_d'Osseghem</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc d’Osseghem est un parc forestier de 17 hectares situé sur le plateau du Heysel à Bruxelles. Il fut aménagé entre 1927 et 1935, à l'initiative de Léopold II, sur les plans de l’architecte paysagiste Jules Buyssens, dans le cadre de l'organisation de l'exposition universelle de 1935.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_d%27Osseghem</t>
+          <t>Parc_d'Osseghem</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parc_d%27Osseghem</t>
+          <t>Parc_d'Osseghem</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,84 +552,263 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc est enserré entre le boulevard du Centenaire, l'avenue de l'Atomium, l'avenue de Madrid, l'avenue du comte Moens de Fernig - commissaire général de l'Exposition universelle de 1958 - et l'avenue du Gros Tilleul.
-Avenue du Hallier
-Allée de hêtres pourpres taillés en cylindre.
-Le théâtre de verdure
-50° 53′ 40″ N, 4° 20′ 39″ E
-Le pavillon Tuilier
-Situé en bordure du parc, avenue de l'Atomium, le pavillon du Comptoir Tuillier (entreprise courtraisienne) est un bâtiment conçu par l'architecte G. Bontinck, pour l'exposition universelle de 1958 et l'un des rares à ne pas avoir été détruit. Désormais classé, il est aujourd'hui occupé par un restaurant[1].
-La passerelle royale
-Le monument à Adolphe Max
-50° 53′ 36″ N, 4° 20′ 38″ E (au bas de l'avenue du Hallier)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Parc_d'Osseghem</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_d%27Osseghem</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Avenue du Hallier</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allée de hêtres pourpres taillés en cylindre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Parc_d'Osseghem</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_d%27Osseghem</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Le théâtre de verdure</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">50° 53′ 40″ N, 4° 20′ 39″ E
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Parc_d'Osseghem</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_d%27Osseghem</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Le pavillon Tuilier</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Situé en bordure du parc, avenue de l'Atomium, le pavillon du Comptoir Tuillier (entreprise courtraisienne) est un bâtiment conçu par l'architecte G. Bontinck, pour l'exposition universelle de 1958 et l'un des rares à ne pas avoir été détruit. Désormais classé, il est aujourd'hui occupé par un restaurant.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Parc_d'Osseghem</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_d%27Osseghem</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Le monument à Adolphe Max</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">50° 53′ 36″ N, 4° 20′ 38″ E (au bas de l'avenue du Hallier)
 Ce monument est un hommage à Adolphe Max, bourgmestre qui a particulièrement marqué l'évolution de Bruxelles au XIXe siècle.
-Le monument est l'œuvre du sculpteur Fernand Debonnaire (1907-1997)[2].
-L'étang et les faux rochers
-La brigade canine
-50° 53′ 37″ N, 4° 20′ 48″ E
+Le monument est l'œuvre du sculpteur Fernand Debonnaire (1907-1997).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Parc_d'Osseghem</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_d%27Osseghem</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>La brigade canine</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">50° 53′ 37″ N, 4° 20′ 48″ E
 Avenue du Gros Tilleul, no 4.
 Il s'agit du centre de formation pour le dressage des chiens de police pour la zone Bruxelles-Nord.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Parc_d%27Osseghem</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Parc_d%27Osseghem</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Parc_d'Osseghem</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_d%27Osseghem</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Événements</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>le festival Brosella Folk &amp; Jazz</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Parc_d%27Osseghem</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Parc_d%27Osseghem</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Parc_d'Osseghem</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_d%27Osseghem</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Accessibilité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
